--- a/Interface_Design/System_Internal/Ice_Cream_Database_Design.xlsx
+++ b/Interface_Design/System_Internal/Ice_Cream_Database_Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\GitHub\Ice-Cream_Repository\Interface_Design\System_Internal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D945C8-84A8-46EC-B988-4D0745750429}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF13617-EE4E-4885-859E-D41765BD9A7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="70" windowWidth="18920" windowHeight="20780" xr2:uid="{D190C717-3E0B-4CF8-8987-9C797B15A2A4}"/>
+    <workbookView xWindow="19330" yWindow="80" windowWidth="18920" windowHeight="20780" xr2:uid="{D190C717-3E0B-4CF8-8987-9C797B15A2A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -584,8 +584,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" customWidth="1"/>
-    <col min="2" max="2" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
     <col min="3" max="3" width="42.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -822,7 +822,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="53.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.6328125" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.7265625" bestFit="1" customWidth="1"/>
   </cols>
